--- a/figures/mosty_wstep/parabola_punkty.xlsx
+++ b/figures/mosty_wstep/parabola_punkty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dr\latex_text\phd_kali\figures\mosty_wstep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5730B8B4-AB22-474D-A3DA-51DB1DAD6C0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46CF571-AACD-4EA4-94E5-C8B82340724A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{27AF8EF2-6C60-44C2-B605-CCEFDB7B116B}"/>
   </bookViews>
@@ -465,20 +465,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC70B83C-304E-4BB2-8721-35A78DCE398A}">
-  <dimension ref="D5:W30"/>
+  <dimension ref="D5:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20:T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:22" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
         <v>1</v>
       </c>
@@ -489,7 +493,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="7" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:22" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>2</v>
       </c>
@@ -500,7 +504,7 @@
         <v>-83</v>
       </c>
     </row>
-    <row r="8" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:22" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
         <v>3</v>
       </c>
@@ -510,11 +514,11 @@
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:22" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
         <v>4</v>
       </c>
@@ -525,7 +529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:22" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
         <v>5</v>
       </c>
@@ -535,12 +539,12 @@
       <c r="K10">
         <v>250</v>
       </c>
-      <c r="U10">
-        <f>(U6-1)*U7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="V10">
+        <f>(V6-1)*V7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="4:22" x14ac:dyDescent="0.25">
       <c r="I11" t="s">
         <v>6</v>
       </c>
@@ -551,12 +555,12 @@
         <v>-83</v>
       </c>
     </row>
-    <row r="12" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:22" x14ac:dyDescent="0.25">
       <c r="I12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:22" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
         <v>8</v>
       </c>
@@ -565,7 +569,7 @@
         <v>-31250000</v>
       </c>
     </row>
-    <row r="14" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:22" x14ac:dyDescent="0.25">
       <c r="I14" t="s">
         <v>9</v>
       </c>
@@ -574,7 +578,7 @@
         <v>41500</v>
       </c>
     </row>
-    <row r="15" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:22" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
         <v>10</v>
       </c>
@@ -583,7 +587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:22" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
         <v>11</v>
       </c>
@@ -592,7 +596,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="T17">
+        <f>2*PI()/500</f>
+        <v>1.2566370614359173E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="9:24" x14ac:dyDescent="0.25">
       <c r="I18" s="1" t="s">
         <v>18</v>
       </c>
@@ -604,7 +614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:24" x14ac:dyDescent="0.25">
       <c r="I19" s="1" t="s">
         <v>19</v>
       </c>
@@ -616,7 +626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:24" x14ac:dyDescent="0.25">
       <c r="I20" s="1" t="s">
         <v>20</v>
       </c>
@@ -638,12 +648,24 @@
         <f>"spline "&amp;M20&amp;","&amp;N20</f>
         <v>spline -250,-83</v>
       </c>
-      <c r="W20">
+      <c r="R20">
+        <f>100*SIN($T$17*M20)</f>
+        <v>-1.22514845490862E-14</v>
+      </c>
+      <c r="S20">
+        <f>ROUND(R20,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T20" t="str">
+        <f>"spline "&amp;M20&amp;","&amp;S20</f>
+        <v>spline -250,0</v>
+      </c>
+      <c r="X20">
         <f>500*1/6</f>
         <v>83.333333333333329</v>
       </c>
     </row>
-    <row r="21" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:24" x14ac:dyDescent="0.25">
       <c r="M21">
         <v>-200</v>
       </c>
@@ -655,8 +677,20 @@
         <f>"spline "&amp;M21&amp;","&amp;N21</f>
         <v>spline -200,-53.12</v>
       </c>
-    </row>
-    <row r="22" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <f t="shared" ref="R21:R44" si="0">100*SIN($T$17*M21)</f>
+        <v>-58.778525229247322</v>
+      </c>
+      <c r="S21">
+        <f t="shared" ref="S21:S44" si="1">ROUND(R21,4)</f>
+        <v>-58.778500000000001</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" ref="T21:T44" si="2">"spline "&amp;M21&amp;","&amp;S21</f>
+        <v>spline -200,-58.7785</v>
+      </c>
+    </row>
+    <row r="22" spans="9:24" x14ac:dyDescent="0.25">
       <c r="M22">
         <f>M21+50</f>
         <v>-150</v>
@@ -666,120 +700,592 @@
         <v>-29.88</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" ref="O22:O29" si="0">"spline "&amp;M22&amp;","&amp;N22</f>
+        <f t="shared" ref="O22:O29" si="3">"spline "&amp;M22&amp;","&amp;N22</f>
         <v>spline -150,-29.88</v>
       </c>
-    </row>
-    <row r="23" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>-95.10565162951535</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="1"/>
+        <v>-95.105699999999999</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="2"/>
+        <v>spline -150,-95.1057</v>
+      </c>
+    </row>
+    <row r="23" spans="9:24" x14ac:dyDescent="0.25">
       <c r="M23">
-        <f t="shared" ref="M23:M33" si="1">M22+50</f>
+        <f t="shared" ref="M23:M44" si="4">M22+50</f>
         <v>-100</v>
       </c>
       <c r="N23">
-        <f t="shared" ref="N23:N33" si="2">$J$18*M23^2+$J$19*M23+$J$20</f>
+        <f t="shared" ref="N23:N30" si="5">$J$18*M23^2+$J$19*M23+$J$20</f>
         <v>-13.28</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>spline -100,-13.28</v>
       </c>
-    </row>
-    <row r="24" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>-95.10565162951535</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="1"/>
+        <v>-95.105699999999999</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="2"/>
+        <v>spline -100,-95.1057</v>
+      </c>
+    </row>
+    <row r="24" spans="9:24" x14ac:dyDescent="0.25">
       <c r="M24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-50</v>
       </c>
       <c r="N24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-3.32</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>spline -50,-3.32</v>
       </c>
-    </row>
-    <row r="25" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>-58.778525229247315</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="1"/>
+        <v>-58.778500000000001</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="2"/>
+        <v>spline -50,-58.7785</v>
+      </c>
+    </row>
+    <row r="25" spans="9:24" x14ac:dyDescent="0.25">
       <c r="M25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>spline 0,0</v>
       </c>
-    </row>
-    <row r="26" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="2"/>
+        <v>spline 0,0</v>
+      </c>
+    </row>
+    <row r="26" spans="9:24" x14ac:dyDescent="0.25">
       <c r="M26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="N26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-3.32</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>spline 50,-3.32</v>
       </c>
-    </row>
-    <row r="27" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>58.778525229247315</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="1"/>
+        <v>58.778500000000001</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="2"/>
+        <v>spline 50,58.7785</v>
+      </c>
+    </row>
+    <row r="27" spans="9:24" x14ac:dyDescent="0.25">
       <c r="M27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-13.28</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>spline 100,-13.28</v>
       </c>
-    </row>
-    <row r="28" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>95.10565162951535</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="1"/>
+        <v>95.105699999999999</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="2"/>
+        <v>spline 100,95.1057</v>
+      </c>
+    </row>
+    <row r="28" spans="9:24" x14ac:dyDescent="0.25">
       <c r="M28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="N28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-29.88</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>spline 150,-29.88</v>
       </c>
-    </row>
-    <row r="29" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>95.10565162951535</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="1"/>
+        <v>95.105699999999999</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="2"/>
+        <v>spline 150,95.1057</v>
+      </c>
+    </row>
+    <row r="29" spans="9:24" x14ac:dyDescent="0.25">
       <c r="M29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="N29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-53.12</v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>spline 200,-53.12</v>
       </c>
-    </row>
-    <row r="30" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>58.778525229247322</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="1"/>
+        <v>58.778500000000001</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="2"/>
+        <v>spline 200,58.7785</v>
+      </c>
+    </row>
+    <row r="30" spans="9:24" x14ac:dyDescent="0.25">
       <c r="M30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="N30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-83</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" ref="O30" si="3">"spline "&amp;M30&amp;","&amp;N30</f>
+        <f t="shared" ref="O30" si="6">"spline "&amp;M30&amp;","&amp;N30</f>
         <v>spline 250,-83</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>1.22514845490862E-14</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="2"/>
+        <v>spline 250,0</v>
+      </c>
+    </row>
+    <row r="31" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:N44" si="7">$J$18*M31^2+$J$19*M31+$J$20</f>
+        <v>-119.52</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" ref="O31:O44" si="8">"spline "&amp;M31&amp;","&amp;N31</f>
+        <v>spline 300,-119.52</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>-58.778525229247336</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="1"/>
+        <v>-58.778500000000001</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="2"/>
+        <v>spline 300,-58.7785</v>
+      </c>
+    </row>
+    <row r="32" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="7"/>
+        <v>-162.68</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="8"/>
+        <v>spline 350,-162.68</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="0"/>
+        <v>-95.10565162951535</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="1"/>
+        <v>-95.105699999999999</v>
+      </c>
+      <c r="T32" t="str">
+        <f t="shared" si="2"/>
+        <v>spline 350,-95.1057</v>
+      </c>
+    </row>
+    <row r="33" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="7"/>
+        <v>-212.48</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="8"/>
+        <v>spline 400,-212.48</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="0"/>
+        <v>-95.105651629515364</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="1"/>
+        <v>-95.105699999999999</v>
+      </c>
+      <c r="T33" t="str">
+        <f t="shared" si="2"/>
+        <v>spline 400,-95.1057</v>
+      </c>
+    </row>
+    <row r="34" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="7"/>
+        <v>-268.92</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="8"/>
+        <v>spline 450,-268.92</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="0"/>
+        <v>-58.778525229247336</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="1"/>
+        <v>-58.778500000000001</v>
+      </c>
+      <c r="T34" t="str">
+        <f t="shared" si="2"/>
+        <v>spline 450,-58.7785</v>
+      </c>
+    </row>
+    <row r="35" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="7"/>
+        <v>-332</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="8"/>
+        <v>spline 500,-332</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="0"/>
+        <v>-2.45029690981724E-14</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T35" t="str">
+        <f t="shared" si="2"/>
+        <v>spline 500,0</v>
+      </c>
+    </row>
+    <row r="36" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <f t="shared" si="4"/>
+        <v>550</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="7"/>
+        <v>-401.71999999999997</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="8"/>
+        <v>spline 550,-401.72</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="0"/>
+        <v>58.778525229247293</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="1"/>
+        <v>58.778500000000001</v>
+      </c>
+      <c r="T36" t="str">
+        <f t="shared" si="2"/>
+        <v>spline 550,58.7785</v>
+      </c>
+    </row>
+    <row r="37" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="7"/>
+        <v>-478.08</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="8"/>
+        <v>spline 600,-478.08</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="0"/>
+        <v>95.105651629515378</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="1"/>
+        <v>95.105699999999999</v>
+      </c>
+      <c r="T37" t="str">
+        <f t="shared" si="2"/>
+        <v>spline 600,95.1057</v>
+      </c>
+    </row>
+    <row r="38" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <f t="shared" si="4"/>
+        <v>650</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="7"/>
+        <v>-561.08000000000004</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="8"/>
+        <v>spline 650,-561.08</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="0"/>
+        <v>95.105651629515364</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="1"/>
+        <v>95.105699999999999</v>
+      </c>
+      <c r="T38" t="str">
+        <f t="shared" si="2"/>
+        <v>spline 650,95.1057</v>
+      </c>
+    </row>
+    <row r="39" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <f t="shared" si="4"/>
+        <v>700</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="7"/>
+        <v>-650.72</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="8"/>
+        <v>spline 700,-650.72</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="0"/>
+        <v>58.778525229247336</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="1"/>
+        <v>58.778500000000001</v>
+      </c>
+      <c r="T39" t="str">
+        <f t="shared" si="2"/>
+        <v>spline 700,58.7785</v>
+      </c>
+    </row>
+    <row r="40" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <f t="shared" si="4"/>
+        <v>750</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="7"/>
+        <v>-747</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="8"/>
+        <v>spline 750,-747</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="0"/>
+        <v>3.67544536472586E-14</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T40" t="str">
+        <f t="shared" si="2"/>
+        <v>spline 750,0</v>
+      </c>
+    </row>
+    <row r="41" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="7"/>
+        <v>-849.92</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="8"/>
+        <v>spline 800,-849.92</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="0"/>
+        <v>-58.778525229247279</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="1"/>
+        <v>-58.778500000000001</v>
+      </c>
+      <c r="T41" t="str">
+        <f t="shared" si="2"/>
+        <v>spline 800,-58.7785</v>
+      </c>
+    </row>
+    <row r="42" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <f t="shared" si="4"/>
+        <v>850</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="7"/>
+        <v>-959.48</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="8"/>
+        <v>spline 850,-959.48</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="0"/>
+        <v>-95.105651629515336</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="1"/>
+        <v>-95.105699999999999</v>
+      </c>
+      <c r="T42" t="str">
+        <f t="shared" si="2"/>
+        <v>spline 850,-95.1057</v>
+      </c>
+    </row>
+    <row r="43" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="7"/>
+        <v>-1075.68</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="8"/>
+        <v>spline 900,-1075.68</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="0"/>
+        <v>-95.105651629515378</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="1"/>
+        <v>-95.105699999999999</v>
+      </c>
+      <c r="T43" t="str">
+        <f t="shared" si="2"/>
+        <v>spline 900,-95.1057</v>
+      </c>
+    </row>
+    <row r="44" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <f t="shared" si="4"/>
+        <v>950</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="7"/>
+        <v>-1198.52</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="8"/>
+        <v>spline 950,-1198.52</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="0"/>
+        <v>-58.77852522924735</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="1"/>
+        <v>-58.778500000000001</v>
+      </c>
+      <c r="T44" t="str">
+        <f t="shared" si="2"/>
+        <v>spline 950,-58.7785</v>
       </c>
     </row>
   </sheetData>
